--- a/data/Card.xlsx
+++ b/data/Card.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\NSU\CSE327\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nsu.fall.2018.cse327.1.t2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5000899D-5E6D-4547-8E63-92561DC343BE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="4470" xr2:uid="{7EB4077F-693C-4828-B7BC-B7136931D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,100 +25,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Credit Cards</t>
-  </si>
-  <si>
-    <t>URL of Credit Cards</t>
-  </si>
-  <si>
-    <t>MasterCard Titanium Card (the Premium brand)</t>
-  </si>
-  <si>
-    <t>https://www.dutchbanglabank.com/electronic-banking/titanium.html</t>
-  </si>
-  <si>
-    <t>EBL Visa Classic Credit Card</t>
-  </si>
-  <si>
-    <t>https://www.ebl.com.bd/home/classic_credit_card_benefits</t>
-  </si>
-  <si>
-    <t>City Visa Credit Card</t>
-  </si>
-  <si>
-    <t>https://www.thecitybank.com/Credit-Card.php</t>
-  </si>
-  <si>
-    <t>Visa Classic Local card</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Sonali Debit Card</t>
+  </si>
+  <si>
+    <t>Sonali Credit Card</t>
+  </si>
+  <si>
+    <t>https://www.sonalibank.com.bd/debit_Card.php</t>
+  </si>
+  <si>
+    <t>Sonali Bank Limited</t>
+  </si>
+  <si>
+    <t>Janata Debit Card</t>
+  </si>
+  <si>
+    <t>Janata Credit Card</t>
+  </si>
+  <si>
+    <t>Janata Bank Limited</t>
+  </si>
+  <si>
+    <t>http://www.janatabank-bd.com/atm-services/</t>
+  </si>
+  <si>
+    <t>Agrani Debit Card</t>
+  </si>
+  <si>
+    <t>Agrani Bank Limited</t>
+  </si>
+  <si>
+    <t>https://www.agranibank.org/debit_card.php</t>
+  </si>
+  <si>
+    <t>Rupali Debit Card</t>
+  </si>
+  <si>
+    <t>Rupali Bank Limited</t>
+  </si>
+  <si>
+    <t>http://www.rupalibank.org/</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Under Rupali Bank ATM services</t>
+  </si>
+  <si>
+    <t>Krishi Bank Debit Card</t>
+  </si>
+  <si>
+    <t>Bangladesh Krishi Bank</t>
+  </si>
+  <si>
+    <t>http://www.krishibank.org.bd/atm-service/</t>
+  </si>
+  <si>
+    <t>AB Bank Debit Card</t>
+  </si>
+  <si>
+    <t>AB Bank</t>
+  </si>
+  <si>
+    <t>http://abbl.com/ebiz/cards/debit-card/</t>
+  </si>
+  <si>
+    <t>AB Bank World MasterCard</t>
+  </si>
+  <si>
+    <t>http://abbl.com/ebiz/cards/credit-card/world-master-card/</t>
+  </si>
+  <si>
+    <t>AB Bank Titanium MasterCard</t>
+  </si>
+  <si>
+    <t>http://abbl.com/ebiz/cards/credit-card/titanium-mastercard-credit-card/</t>
+  </si>
+  <si>
+    <t>AB Bank Gold MasterCard</t>
+  </si>
+  <si>
+    <t>http://abbl.com/ebiz/cards/credit-card/gold-card/</t>
+  </si>
+  <si>
+    <t>BCB debit</t>
+  </si>
+  <si>
+    <t>BCB credit</t>
+  </si>
+  <si>
+    <t>Search Later</t>
+  </si>
+  <si>
+    <t>Bank Asia Debit Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Limited</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/debit_card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa Classic Local Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa Gold Local Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa Classic Dual Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa Gold Dual Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa RFCD Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa ERQ Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Virtual Card</t>
+  </si>
+  <si>
+    <t>Bank Asia SME Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Visa Butterfly Card</t>
+  </si>
+  <si>
+    <t>Bank Asia Hajj Card</t>
+  </si>
+  <si>
+    <t>Bank Asia MasterCard Gold</t>
+  </si>
+  <si>
+    <t>Bank Asia MasterCard Silver</t>
   </si>
   <si>
     <t>http://www.bankasia-bd.com/home/visa_classic_card_local</t>
   </si>
   <si>
-    <t>BRAC Signature Card</t>
-  </si>
-  <si>
-    <t>https://www.bracbank.com/signature.php</t>
-  </si>
-  <si>
-    <t>Dhaka Bank Credit Card</t>
-  </si>
-  <si>
-    <t>https://dhakabankltd.com/credit-card/</t>
-  </si>
-  <si>
-    <t>IFIC Credit Card</t>
-  </si>
-  <si>
-    <t>https://www.ificbank.com.bd/credit_card.php</t>
-  </si>
-  <si>
-    <t>World MasterCard</t>
-  </si>
-  <si>
-    <t>http://abbl.com/ebiz/cards/credit-card/world-master-card/</t>
-  </si>
-  <si>
-    <t>http://www.mutualtrustbank.com/cards/credit-card/local-classic-credit-card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTB Visa Classic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 List of recommended credit cards</t>
-  </si>
-  <si>
-    <t>MasterCard Titanium Credit Card</t>
-  </si>
-  <si>
-    <t>https://www.sc.com/bd/credit-cards/credit-card.html</t>
+    <t>http://www.bankasia-bd.com/home/visa_classic_card_dual</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/visa_gold_card</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/visa_gold_dual</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/visa_gold_card_rfcd</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/visa_gold_card_erq</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/virtual_card_service</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/sme_card</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/visa_butterfly_card</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/hajj_card</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/mastercard_gold</t>
+  </si>
+  <si>
+    <t>http://www.bankasia-bd.com/home/mastercard_local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,14 +250,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -193,7 +290,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -205,7 +302,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -222,9 +319,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -252,14 +349,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -287,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,117 +569,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E30728-8557-4476-988C-F9EED730CF82}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{4B91B61B-E268-477B-835D-6D17AA6DECF6}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{6D25F25F-E2AB-44BD-A6F1-5B7C68599465}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{1904B8C3-6AFE-4377-A325-F705A766A889}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{63732763-415C-4DC3-B403-A9E5147B1E37}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{2A5D4D7D-1178-4B7E-B296-7D6B6F96B857}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{3E6B5E28-D253-4679-B222-661F00B75089}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{6B621502-4AE8-448D-A256-DDEB9766EA92}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{7AE6057B-1A9F-40E3-B29C-9EC40397FDF9}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{17B30346-2E0C-4919-B0CC-D4761B075E90}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{63206309-220D-44CC-854F-9AE93E6DA308}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{38EF6C76-EACF-4869-90E7-F3CF37AF3408}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{C918462C-8BDB-46F8-93AC-0583DCA4391B}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{B7FB9043-2EA6-4B3A-BEE3-6B2E8B6BA5A6}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{776FD8B5-B413-4853-89DB-076000B49E1A}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{B3AE7CD5-51C6-498B-BE95-670B6FEEFD66}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{3434BC5C-0A18-4327-8363-3099E13F4477}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{6D79617A-32E5-4507-8476-9F10384A58DF}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{C48F3622-CDE1-46C6-BEE0-0968602ACBD5}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{A8C6F841-619C-44F0-9225-97FCE4103B5A}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{966A7521-7016-4668-BB28-93E20B5A5EDA}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{6588BAD7-0C07-4F1F-B664-DF56A90C1270}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{8CE853DF-2B26-4099-9AAD-AD55380BF72A}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{34B1481E-9D94-4A96-98EB-E036CD19641F}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{45B178C7-5503-4324-A326-D41AACF2DB5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Card.xlsx
+++ b/data/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nsu.fall.2018.cse327.1.t2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5000899D-5E6D-4547-8E63-92561DC343BE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB604A3-9A41-4C0C-8AF5-EC7D4365AEC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="4470" xr2:uid="{7EB4077F-693C-4828-B7BC-B7136931D4A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
   <si>
     <t>Card Name</t>
   </si>
@@ -120,15 +120,6 @@
     <t>http://abbl.com/ebiz/cards/credit-card/gold-card/</t>
   </si>
   <si>
-    <t>BCB debit</t>
-  </si>
-  <si>
-    <t>BCB credit</t>
-  </si>
-  <si>
-    <t>Search Later</t>
-  </si>
-  <si>
     <t>Bank Asia Debit Card</t>
   </si>
   <si>
@@ -208,6 +199,693 @@
   </si>
   <si>
     <t>http://www.bankasia-bd.com/home/mastercard_local</t>
+  </si>
+  <si>
+    <t>Brac Bank Signature Card</t>
+  </si>
+  <si>
+    <t>Brac Bank Platinum Card</t>
+  </si>
+  <si>
+    <t>Brac Bank Gold Card</t>
+  </si>
+  <si>
+    <t>Brac Bank Classic Card</t>
+  </si>
+  <si>
+    <t>Brac Bank  Planet Debit Card</t>
+  </si>
+  <si>
+    <t>Brac Bank RFCD Debit Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brac Bank Hajj Card </t>
+  </si>
+  <si>
+    <t>Brac Bank Travel Card</t>
+  </si>
+  <si>
+    <t>BRAC Bank Limited</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/signature.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/platinum.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/gold.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/classic.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/debit-card.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/rfcd_debit_card.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/Hajj-Prepaid-Card.php</t>
+  </si>
+  <si>
+    <t>https://www.bracbank.com/Travel-Card.php</t>
+  </si>
+  <si>
+    <t>City Bank Visa Electron Debit Card</t>
+  </si>
+  <si>
+    <t>https://www.thecitybank.com/city_Debit-Card.php</t>
+  </si>
+  <si>
+    <t>City Bank MasterCard Platinum International Debit Card</t>
+  </si>
+  <si>
+    <t>https://www.thecitybank.com/MasterCard.php</t>
+  </si>
+  <si>
+    <t>City Bank American Express Credit Card</t>
+  </si>
+  <si>
+    <t>https://www.thecitybank.com/new_Credit_Card.php</t>
+  </si>
+  <si>
+    <t>Dhaka Bank Credit Card</t>
+  </si>
+  <si>
+    <t>https://dhakabankltd.com/credit-card/</t>
+  </si>
+  <si>
+    <t>Dhaka Bank Debit Card</t>
+  </si>
+  <si>
+    <t>https://dhakabankltd.com/debit-card/</t>
+  </si>
+  <si>
+    <t>Dhaka Bank</t>
+  </si>
+  <si>
+    <t>Dutch Bangla Instant Debit Card</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/instantdebitcard.html</t>
+  </si>
+  <si>
+    <t>Dutch Bangla Visa Debit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard Debit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla Visa International Debit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard International Debit Card</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/visadebitcard.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/mastercarddebit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/visainternationaldebit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/masterinternationaldebit.html</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard Titanium Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla VISA Classic Local Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla VISA platinum Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla VISA Gold Local Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla VISA classic International Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla VISA Gold International Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard Gold International Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard Classic Local Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard Gold Local Credit Card</t>
+  </si>
+  <si>
+    <t>Dutch Bangla MasterCard Classic International Credit Card</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/titanium.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/platinum.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/visaclasicloaclcrdt.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/visagoldlocalcredit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/visaclassicinternationalcredit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/visagoldintcredit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/mastergoldlintcredit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/masterclassiclocalcredit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/mastergoldlocalclassiccredit.html</t>
+  </si>
+  <si>
+    <t>https://www.dutchbanglabank.com/electronic-banking/masterclassicintcredit.html</t>
+  </si>
+  <si>
+    <t>IFIC Classic Local Credit Card</t>
+  </si>
+  <si>
+    <t>IFIC Classic Gold Credit Card</t>
+  </si>
+  <si>
+    <t>IFIC Dual Classic Credit Card</t>
+  </si>
+  <si>
+    <t>IFIC Dual Gold Credit Card</t>
+  </si>
+  <si>
+    <t>IFIC Local Debit Card</t>
+  </si>
+  <si>
+    <t>IFIC Local Business Debit Card</t>
+  </si>
+  <si>
+    <t>IFIC International Debit Card</t>
+  </si>
+  <si>
+    <t>IFIC Prepaid Card</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/visa_local_classic_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/visa_local_gold_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/visa_dual_int_classic_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/visa_dual_int_gold_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/local_debit_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/local_business_debit_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/prepaid_card.php</t>
+  </si>
+  <si>
+    <t>https://www.ificbank.com.bd/int_debit_card.php</t>
+  </si>
+  <si>
+    <t>Jamuna Bank VISA Classic Credit Card</t>
+  </si>
+  <si>
+    <t>Jamuna Bank VISA Gold Credit Card</t>
+  </si>
+  <si>
+    <t>Jamuna Bank VISA Dual Gold Credit Card</t>
+  </si>
+  <si>
+    <t>Jamuna Bank Visa Electron Credit Card</t>
+  </si>
+  <si>
+    <t>Jamuna Bank Protection Plus Debit Card</t>
+  </si>
+  <si>
+    <t>http://jamunabankbd.com/front/productdetails/27/87/120</t>
+  </si>
+  <si>
+    <t>http://jamunabankbd.com/front/productdetails/27/87/121</t>
+  </si>
+  <si>
+    <t>http://jamunabankbd.com/front/productdetails/27/87/122</t>
+  </si>
+  <si>
+    <t>http://jamunabankbd.com/front/productdetails/27/87/123</t>
+  </si>
+  <si>
+    <t>http://jamunabankbd.com/front/productdetails/27/87/157</t>
+  </si>
+  <si>
+    <t>Jamuna Bank Limited</t>
+  </si>
+  <si>
+    <t>IFIC Bank Limited</t>
+  </si>
+  <si>
+    <t>Dutch Bangla Bank Limited</t>
+  </si>
+  <si>
+    <t>City Bank Limited</t>
+  </si>
+  <si>
+    <t>Meghna Debit Card</t>
+  </si>
+  <si>
+    <t>Meghna Visa Silver Credit Card</t>
+  </si>
+  <si>
+    <t>Meghna Visa Gold Credit Card</t>
+  </si>
+  <si>
+    <t>Meghna Bank</t>
+  </si>
+  <si>
+    <t>https://www.meghnabank.com.bd/mbl/debit_card.php</t>
+  </si>
+  <si>
+    <t>https://www.meghnabank.com.bd/mbl/silver_credit_card.php</t>
+  </si>
+  <si>
+    <t>https://www.meghnabank.com.bd/mbl/gold_credit_card.php</t>
+  </si>
+  <si>
+    <t>MDB Visa Gold Dual Credit Card</t>
+  </si>
+  <si>
+    <t>MDB Visa Platinum Dual Credit Card</t>
+  </si>
+  <si>
+    <t>Midland Bank</t>
+  </si>
+  <si>
+    <t>https://www.midlandbankbd.net/mdb-credit-card/</t>
+  </si>
+  <si>
+    <t>MDB Visa Debit Card</t>
+  </si>
+  <si>
+    <t>https://www.midlandbankbd.net/debit-card/</t>
+  </si>
+  <si>
+    <t>MDB Prepaid Card</t>
+  </si>
+  <si>
+    <t>https://www.midlandbankbd.net/mdb-prepaid-card/</t>
+  </si>
+  <si>
+    <t>Modhumoti Visa Dual Platinum Credit Card</t>
+  </si>
+  <si>
+    <t>Modhumoti Visa Dual Gold Credit Card</t>
+  </si>
+  <si>
+    <t>Modhumoti Visa Dual Classic Credit Card</t>
+  </si>
+  <si>
+    <t>Modhumoti Bank</t>
+  </si>
+  <si>
+    <t>https://www.modhumotibankltd.com/modhumoti-visa-dual-platinum-credit-card/</t>
+  </si>
+  <si>
+    <t>https://www.modhumotibankltd.com/modhumoti-visa-dual-gold-credit-card/</t>
+  </si>
+  <si>
+    <t>https://www.modhumotibankltd.com/modhumoti-visa-dual-classic-credit-card/</t>
+  </si>
+  <si>
+    <t>MTB Visa Classic Credit Card</t>
+  </si>
+  <si>
+    <t>MTB Visa Gold Local Credit Card</t>
+  </si>
+  <si>
+    <t>MTB Visa Dual Gold Credit Card</t>
+  </si>
+  <si>
+    <t>MTB VISA Platinum Credit Card</t>
+  </si>
+  <si>
+    <t>MTB Visa Signature Credit Card</t>
+  </si>
+  <si>
+    <t>MTB Classic Master Credit Card</t>
+  </si>
+  <si>
+    <t>MTB Gold Master Credit Card</t>
+  </si>
+  <si>
+    <t>MTB Titanium Master Credit Card</t>
+  </si>
+  <si>
+    <t>MTB World MasterCard Credit Card</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/local-classic-credit-card</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/local-gold-credit-card</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/dual-currency-credit-card</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/mtb-visa-platinum-credit-card/</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/mtb-visa-signature-credit-card/</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/mtb-classic-master-credit-card/</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/mtb-gold-master-credit-card/</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/mtb-titanium-master-credit-card/</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/credit-card/mtb-world-mastercard-credit-card/</t>
+  </si>
+  <si>
+    <t>Mutual Trust bank Limited</t>
+  </si>
+  <si>
+    <t>MTB Visa Classic Debit Card</t>
+  </si>
+  <si>
+    <t>MTB Visa Platinum Debit Card</t>
+  </si>
+  <si>
+    <t>MTB Visa Signature Debit Card</t>
+  </si>
+  <si>
+    <t>MTB MasterCard Debit Gold</t>
+  </si>
+  <si>
+    <t>MTB MasterCard Debit Titanium</t>
+  </si>
+  <si>
+    <t>MTB MasterCard World Debit</t>
+  </si>
+  <si>
+    <t>http://www.mutualtrustbank.com/cards/debit-card/</t>
+  </si>
+  <si>
+    <t>NCC Debit Card</t>
+  </si>
+  <si>
+    <t>NCC Visa Credit Card</t>
+  </si>
+  <si>
+    <t>https://www.nccbank.com.bd/index.php/nccbproducts_debitcard</t>
+  </si>
+  <si>
+    <t>https://www.nccbank.com.bd/index.php/nccbproducts_creditcard</t>
+  </si>
+  <si>
+    <t>National Credit and Commerce Bank Limited</t>
+  </si>
+  <si>
+    <t>NRB Bank Visa EMV Global Debit Card</t>
+  </si>
+  <si>
+    <t>NRB Bank Limited</t>
+  </si>
+  <si>
+    <t>http://www.nrbbankbd.com/debit-cards/</t>
+  </si>
+  <si>
+    <t>NRB Bank Visa Credit Card</t>
+  </si>
+  <si>
+    <t>http://www.nrbbankbd.com/credit-card/</t>
+  </si>
+  <si>
+    <t>NRBC Bank Debit Card</t>
+  </si>
+  <si>
+    <t>https://www.nrbcommercialbank.com/cards/NRBCB/Debit_card</t>
+  </si>
+  <si>
+    <t>NRBC Platinum Dual Currency Credit Card</t>
+  </si>
+  <si>
+    <t>NRBC Gold Dual Currency Credit Card</t>
+  </si>
+  <si>
+    <t>NRBC Classic Dual Currency Credit Card</t>
+  </si>
+  <si>
+    <t>NRB Commercial Bank Limited</t>
+  </si>
+  <si>
+    <t>https://www.nrbcommercialbank.com/cards/NRBCB/Platinum_Dual_Currency_Credit_card</t>
+  </si>
+  <si>
+    <t>https://www.nrbcommercialbank.com/cards/NRBCB/Gold__Dual_Currency_Credit_card</t>
+  </si>
+  <si>
+    <t>https://www.nrbcommercialbank.com/cards/NRBCB/Classical__Dual_Currency_Credit_card</t>
+  </si>
+  <si>
+    <t>Prime Bank Debit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/debit_cards</t>
+  </si>
+  <si>
+    <t>Prime Bank MasterCard Gold Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank Visa Gold Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank MasterCard Silver Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank Visa Classic Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank International Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank Platinum Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank Hasanah Credit Card</t>
+  </si>
+  <si>
+    <t>Prime Bank JCB Credit Card</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/Prime_Bank_Master_Gold</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/Prime_Bank_Master_Silver</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/Prime_Bank_VISA_Gold</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/Prime_Bank_VISA_Classic</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/International_Card</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/platinum_credit_card</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/hasanah_credit_card</t>
+  </si>
+  <si>
+    <t>https://www.primebank.com.bd/index.php/home/jcb_credit_card</t>
+  </si>
+  <si>
+    <t>Trust Bank</t>
+  </si>
+  <si>
+    <t>Trust Bank Platinum Credit Card</t>
+  </si>
+  <si>
+    <t>Trust Bank Visa International Classic Dual Card</t>
+  </si>
+  <si>
+    <t>Trust Bank Visa International Gold Card</t>
+  </si>
+  <si>
+    <t>Trust Bank Debit Card</t>
+  </si>
+  <si>
+    <t>Trust Bank Prepaid Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trust Hajj Card </t>
+  </si>
+  <si>
+    <t>Trust Proprietary Card</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/TBL-platinum-card</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/visa-international-classic-dual</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/visa-international-gold</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/debit-card</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/prepaid-card</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/trust-hajj-card</t>
+  </si>
+  <si>
+    <t>https://www.tblbd.com/trust-proprietary-card</t>
+  </si>
+  <si>
+    <t>Pubali Debit Card</t>
+  </si>
+  <si>
+    <t>Pubali MasterCard</t>
+  </si>
+  <si>
+    <t>https://www.pubalibangla.com/credit-card.asp</t>
+  </si>
+  <si>
+    <t>Check Schedule Of Charges for the fees</t>
+  </si>
+  <si>
+    <t>Pubali Bank Limited</t>
+  </si>
+  <si>
+    <t>UCB Debit Card</t>
+  </si>
+  <si>
+    <t>United Commercial Bank Limited</t>
+  </si>
+  <si>
+    <t>https://www.ucb.com.bd/index.php?page=retail-banking/cards/debit-card</t>
+  </si>
+  <si>
+    <t>UCB Visa Classic Credit Card</t>
+  </si>
+  <si>
+    <t>UCB MasterCard Classic Credit Card</t>
+  </si>
+  <si>
+    <t>UCB Visa Gold Credit Card</t>
+  </si>
+  <si>
+    <t>UCB MasterCard Gold Credit Card</t>
+  </si>
+  <si>
+    <t>UCB Visa Platinum Credit Card</t>
+  </si>
+  <si>
+    <t>UCB MasterCard Platinum Credit Card</t>
+  </si>
+  <si>
+    <t>https://www.ucb.com.bd/index.php?page=retail-banking/cards/credit-card</t>
+  </si>
+  <si>
+    <t>Card Type</t>
+  </si>
+  <si>
+    <t>Cardholder Minimum Age</t>
+  </si>
+  <si>
+    <t>Card issue fee</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Annual Fee</t>
+  </si>
+  <si>
+    <t>Card Replacement Fee</t>
+  </si>
+  <si>
+    <t>Cash Withdrawal Limit Per transaction</t>
+  </si>
+  <si>
+    <t>Cash withdrawal Limit Per day</t>
+  </si>
+  <si>
+    <t>Card VAT annual</t>
+  </si>
+  <si>
+    <t>Minimum Credit Limit</t>
+  </si>
+  <si>
+    <t>Maximum Credit Limit</t>
+  </si>
+  <si>
+    <t>International Transaction Available</t>
+  </si>
+  <si>
+    <t>Dual Currency</t>
+  </si>
+  <si>
+    <t>reward_airport_lounge</t>
+  </si>
+  <si>
+    <t>reward_cashback_available</t>
+  </si>
+  <si>
+    <t>reward_cashback_percentage</t>
+  </si>
+  <si>
+    <t>reward luxary resort</t>
+  </si>
+  <si>
+    <t>reward insurance plan</t>
+  </si>
+  <si>
+    <t>reward travel agency</t>
+  </si>
+  <si>
+    <t>reward fine dining</t>
+  </si>
+  <si>
+    <t>reward buffet discount</t>
+  </si>
+  <si>
+    <t>reward medical discount</t>
+  </si>
+  <si>
+    <t>reward airlines ticket</t>
+  </si>
+  <si>
+    <t>sms transaction</t>
+  </si>
+  <si>
+    <t>EMI available</t>
   </si>
 </sst>
 </file>
@@ -252,9 +930,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -570,21 +1251,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E30728-8557-4476-988C-F9EED730CF82}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
     <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +1298,83 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W1" t="s">
+        <v>280</v>
+      </c>
+      <c r="X1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -609,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -620,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -642,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -653,7 +1429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -667,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -678,7 +1454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -689,7 +1465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -700,7 +1476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -711,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -722,61 +1498,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
@@ -784,101 +1566,1171 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -894,20 +2746,112 @@
     <hyperlink ref="C9" r:id="rId9" xr:uid="{17B30346-2E0C-4919-B0CC-D4761B075E90}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{63206309-220D-44CC-854F-9AE93E6DA308}"/>
     <hyperlink ref="C12" r:id="rId11" xr:uid="{38EF6C76-EACF-4869-90E7-F3CF37AF3408}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{C918462C-8BDB-46F8-93AC-0583DCA4391B}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{B7FB9043-2EA6-4B3A-BEE3-6B2E8B6BA5A6}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{776FD8B5-B413-4853-89DB-076000B49E1A}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{B3AE7CD5-51C6-498B-BE95-670B6FEEFD66}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{3434BC5C-0A18-4327-8363-3099E13F4477}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{6D79617A-32E5-4507-8476-9F10384A58DF}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{C48F3622-CDE1-46C6-BEE0-0968602ACBD5}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{A8C6F841-619C-44F0-9225-97FCE4103B5A}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{966A7521-7016-4668-BB28-93E20B5A5EDA}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{6588BAD7-0C07-4F1F-B664-DF56A90C1270}"/>
-    <hyperlink ref="C25" r:id="rId22" xr:uid="{8CE853DF-2B26-4099-9AAD-AD55380BF72A}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{34B1481E-9D94-4A96-98EB-E036CD19641F}"/>
-    <hyperlink ref="C27" r:id="rId24" xr:uid="{45B178C7-5503-4324-A326-D41AACF2DB5E}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C918462C-8BDB-46F8-93AC-0583DCA4391B}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{B7FB9043-2EA6-4B3A-BEE3-6B2E8B6BA5A6}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{776FD8B5-B413-4853-89DB-076000B49E1A}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{B3AE7CD5-51C6-498B-BE95-670B6FEEFD66}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{3434BC5C-0A18-4327-8363-3099E13F4477}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{6D79617A-32E5-4507-8476-9F10384A58DF}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{C48F3622-CDE1-46C6-BEE0-0968602ACBD5}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{A8C6F841-619C-44F0-9225-97FCE4103B5A}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{966A7521-7016-4668-BB28-93E20B5A5EDA}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{6588BAD7-0C07-4F1F-B664-DF56A90C1270}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{8CE853DF-2B26-4099-9AAD-AD55380BF72A}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{34B1481E-9D94-4A96-98EB-E036CD19641F}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{45B178C7-5503-4324-A326-D41AACF2DB5E}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{09C3A7C5-0553-48D4-9DE9-F48E1E848403}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{A00432B0-1EB7-4F2B-9134-8230F5048E8F}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{A25F0EFA-36B4-4BAF-8F99-C70487991B3A}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{658A4805-2C67-4660-92CC-49EFE00D21C4}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{1F6B4986-EF9C-42DE-8CD4-73701B49A161}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{E6C174A7-EE25-4BF1-8989-C542B46F523E}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{E8C86549-F588-432C-B4E8-7E53D9760E07}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{3DCD3958-B95B-4F29-8E6A-54F10299D88A}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{7F07F796-91AE-44C9-AD79-753AB9A0F824}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{B3151CA7-5474-4658-A4A4-78BDB60E274F}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{B9D27FF7-8AD0-4845-9778-C6B0D3EFD636}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{A0BFC792-6273-4F5C-B58E-75B281C9C2E1}"/>
+    <hyperlink ref="C39" r:id="rId37" xr:uid="{439E0F6C-D2CE-428D-B207-318BB0B311FC}"/>
+    <hyperlink ref="C40" r:id="rId38" xr:uid="{297EF7EF-E3CA-4431-AE94-E047DA3F328D}"/>
+    <hyperlink ref="C41" r:id="rId39" xr:uid="{1C2286F0-BD88-4A5A-808A-3FEB1768BA24}"/>
+    <hyperlink ref="C42" r:id="rId40" xr:uid="{7DCCE3FC-21A4-4035-92BD-1E124970411D}"/>
+    <hyperlink ref="C43" r:id="rId41" xr:uid="{D31D6E18-243B-46CB-AA57-FD5EC83B0C3B}"/>
+    <hyperlink ref="C44" r:id="rId42" xr:uid="{3339DB2A-F488-4B79-8CE8-60B34FB7171F}"/>
+    <hyperlink ref="C45" r:id="rId43" xr:uid="{D905135D-70FF-4F89-8617-D66EB55971CD}"/>
+    <hyperlink ref="C46" r:id="rId44" xr:uid="{AAD4C551-63F9-475E-A392-36EB7A732765}"/>
+    <hyperlink ref="C47" r:id="rId45" xr:uid="{4079D24C-DBE6-438D-8E3F-67CA35E02C9C}"/>
+    <hyperlink ref="C48" r:id="rId46" xr:uid="{26291714-6C4B-4FCF-BDE4-6527C113BF46}"/>
+    <hyperlink ref="C49" r:id="rId47" xr:uid="{BDDA1287-140E-49E6-A1EB-6654EBE1832D}"/>
+    <hyperlink ref="C50" r:id="rId48" xr:uid="{5BCDC4BB-3FEC-4577-80A9-C4B428371C2F}"/>
+    <hyperlink ref="C51" r:id="rId49" xr:uid="{AAD147D4-C6C1-4011-BC14-2BFDA3E1E394}"/>
+    <hyperlink ref="C52" r:id="rId50" xr:uid="{F9E78B1A-A00E-41E8-90A9-A38997567DE2}"/>
+    <hyperlink ref="C53" r:id="rId51" xr:uid="{B8DAF179-8D90-4350-8751-9C95A6A24562}"/>
+    <hyperlink ref="C54" r:id="rId52" xr:uid="{7876A98A-C134-4F76-85C8-877CBE498A76}"/>
+    <hyperlink ref="C55" r:id="rId53" xr:uid="{CB95C4C6-8395-46C7-B37C-8AFA7F3A3DA9}"/>
+    <hyperlink ref="C56" r:id="rId54" xr:uid="{B5898019-D932-40A5-BBB5-56313531DDDB}"/>
+    <hyperlink ref="C57" r:id="rId55" xr:uid="{7903F468-8FCF-48D3-ABF7-8C7D4A28F6C9}"/>
+    <hyperlink ref="C58" r:id="rId56" xr:uid="{6A1F127B-67B7-4F7F-84DC-7C13CE4EDC8A}"/>
+    <hyperlink ref="C59" r:id="rId57" xr:uid="{379ECAA4-9444-4C01-83B9-9B251FDFB825}"/>
+    <hyperlink ref="C60" r:id="rId58" xr:uid="{9FEA6834-66BC-4C6F-969D-27D6ED3F06DF}"/>
+    <hyperlink ref="C61" r:id="rId59" xr:uid="{6A048F99-9379-43DC-ADAF-4AA7C49EEF3D}"/>
+    <hyperlink ref="C62" r:id="rId60" xr:uid="{057C481C-4975-46A2-A1DC-8AB91DB993EB}"/>
+    <hyperlink ref="C63" r:id="rId61" xr:uid="{3D0CA047-9C43-4A2D-8107-677038B90B93}"/>
+    <hyperlink ref="C64" r:id="rId62" xr:uid="{CF240489-9F01-4701-A006-45EF63022A68}"/>
+    <hyperlink ref="C65" r:id="rId63" xr:uid="{3B1623E4-3D48-4212-BFCF-5FBAA7A0B0D9}"/>
+    <hyperlink ref="C66" r:id="rId64" xr:uid="{B93244A5-1EDB-4345-9CAA-5B035D1B83FE}"/>
+    <hyperlink ref="C67" r:id="rId65" xr:uid="{4A606E4E-5FFE-4C0E-B917-077EC274ACC6}"/>
+    <hyperlink ref="C68" r:id="rId66" xr:uid="{715EEDA0-8DED-42B0-95F5-24FC1C329654}"/>
+    <hyperlink ref="C69" r:id="rId67" xr:uid="{71FB7F72-282F-42D1-B1A9-E6070CA98C73}"/>
+    <hyperlink ref="C70" r:id="rId68" xr:uid="{03B46E25-064C-49CE-8227-0A3F745E9E23}"/>
+    <hyperlink ref="C71" r:id="rId69" xr:uid="{2177A08E-01E8-41B6-9D4F-EF033D1479CF}"/>
+    <hyperlink ref="C72" r:id="rId70" xr:uid="{59819E66-709A-45E5-A290-AA0C0FDAC8C4}"/>
+    <hyperlink ref="C73" r:id="rId71" xr:uid="{B1C93517-3A56-403E-91AB-C81F2157654F}"/>
+    <hyperlink ref="C74" r:id="rId72" xr:uid="{A9AD0B51-1551-4C6C-924D-F45EB80D8998}"/>
+    <hyperlink ref="C75" r:id="rId73" xr:uid="{CD559EDB-A7A6-48B4-9A79-8B656BC4CA7B}"/>
+    <hyperlink ref="C76" r:id="rId74" xr:uid="{EF58442B-5409-417D-ABF4-8C32875A0563}"/>
+    <hyperlink ref="C77" r:id="rId75" xr:uid="{B4D2AD6F-FDBE-4921-824D-72BE46AFA13F}"/>
+    <hyperlink ref="C78" r:id="rId76" xr:uid="{778F9782-CAB8-4DEA-AC01-1581E5C25370}"/>
+    <hyperlink ref="C79" r:id="rId77" xr:uid="{1DBDA561-D5DF-473D-B362-D2B9ECF5CFF6}"/>
+    <hyperlink ref="C80" r:id="rId78" xr:uid="{EFFDB45C-565B-4ED4-BF8A-2886A8AE965F}"/>
+    <hyperlink ref="C81" r:id="rId79" xr:uid="{369B34CE-1AD3-4CC5-8BA6-FE99717BF2EE}"/>
+    <hyperlink ref="C82" r:id="rId80" xr:uid="{D31F4AEA-AD8F-4AC4-A730-CCDF042EAE4E}"/>
+    <hyperlink ref="C83" r:id="rId81" xr:uid="{47DA48EE-8AD7-4B6A-974D-DDF7C095EF1C}"/>
+    <hyperlink ref="C84" r:id="rId82" xr:uid="{3BDB8596-95A3-4839-B638-ABB6322B55F2}"/>
+    <hyperlink ref="C85" r:id="rId83" xr:uid="{1812A73B-CCAE-4EF2-80F3-857A7BFDDE52}"/>
+    <hyperlink ref="C86" r:id="rId84" xr:uid="{4A5EFEFA-47CD-4F81-A42B-D3D6DA4BCC00}"/>
+    <hyperlink ref="C87:C91" r:id="rId85" display="http://www.mutualtrustbank.com/cards/debit-card/" xr:uid="{52D60934-B503-4BD1-9620-41410503D3BB}"/>
+    <hyperlink ref="C92" r:id="rId86" xr:uid="{ECC22B60-1BBB-4E51-A689-6DEE4CA1BBED}"/>
+    <hyperlink ref="C93" r:id="rId87" xr:uid="{7F614B8A-5FCC-43BC-916C-C12CED7F5EBB}"/>
+    <hyperlink ref="C94" r:id="rId88" xr:uid="{634FD49B-F87B-42B3-9B60-7B83A053B36C}"/>
+    <hyperlink ref="C95" r:id="rId89" xr:uid="{43730E1A-E2EA-4376-ABBE-9E346C5A9520}"/>
+    <hyperlink ref="C96" r:id="rId90" xr:uid="{A6957A9A-60EF-44BC-868E-D18124344E30}"/>
+    <hyperlink ref="C97" r:id="rId91" xr:uid="{2A80C244-A412-4C5A-BAA8-DDF1C83C0CA8}"/>
+    <hyperlink ref="C98" r:id="rId92" xr:uid="{343615FD-792D-4B9C-AEFA-22579948111D}"/>
+    <hyperlink ref="C99" r:id="rId93" xr:uid="{857DEF1A-F451-42E0-8D92-01BD88B81200}"/>
+    <hyperlink ref="C100" r:id="rId94" xr:uid="{B4C43BF6-4197-4820-ADF9-BDB2B4FF92D0}"/>
+    <hyperlink ref="C101" r:id="rId95" xr:uid="{272BD9A5-D480-4CD5-9100-E0389D4702E2}"/>
+    <hyperlink ref="C102" r:id="rId96" xr:uid="{4DEC86E6-A0A5-43A7-B615-D4F55D4504F2}"/>
+    <hyperlink ref="C103" r:id="rId97" xr:uid="{5B9F0AD0-2F28-419B-B4E0-F1FBE435F8EE}"/>
+    <hyperlink ref="C104" r:id="rId98" xr:uid="{E89CABB3-10EE-4817-8E4F-EFF60947FCA3}"/>
+    <hyperlink ref="C105" r:id="rId99" xr:uid="{24552125-C99E-498C-96FF-C8D6A5BC136D}"/>
+    <hyperlink ref="C106" r:id="rId100" xr:uid="{A9F60D2B-4C69-45CE-A892-920D64329853}"/>
+    <hyperlink ref="C107" r:id="rId101" xr:uid="{3443369E-59CC-4055-BCE5-67344F3F3458}"/>
+    <hyperlink ref="C108" r:id="rId102" xr:uid="{8A8EAF89-9A3C-493C-BFA6-21EDE64CAACD}"/>
+    <hyperlink ref="C109" r:id="rId103" xr:uid="{B49A0065-7C45-406F-9F52-250A7505D275}"/>
+    <hyperlink ref="C110" r:id="rId104" xr:uid="{EA767259-2300-470D-A83D-138BC8F9146A}"/>
+    <hyperlink ref="C111" r:id="rId105" xr:uid="{9FAAEB42-D50A-4441-A703-8FA9BFF7CD17}"/>
+    <hyperlink ref="C112" r:id="rId106" xr:uid="{282D21AD-6BA4-4EC3-8121-35701ED4D22A}"/>
+    <hyperlink ref="C113" r:id="rId107" xr:uid="{B784B0F5-6CDD-49B7-B73E-CEADFD5507E4}"/>
+    <hyperlink ref="C114" r:id="rId108" xr:uid="{1663D751-F64E-4AD8-BF5E-FAFA77D335F2}"/>
+    <hyperlink ref="C115" r:id="rId109" xr:uid="{A497CB7F-B764-49F8-8721-B79D4A42DE77}"/>
+    <hyperlink ref="C116" r:id="rId110" xr:uid="{80B507E1-6884-423C-8A01-F14C3FCCFBB6}"/>
+    <hyperlink ref="C117" r:id="rId111" xr:uid="{54757A07-0B8A-4AA4-89B7-2586A4DDDCD3}"/>
+    <hyperlink ref="C118" r:id="rId112" xr:uid="{2EB6FB93-35CD-4F51-9CE9-D5F90054AA59}"/>
+    <hyperlink ref="C119" r:id="rId113" xr:uid="{03503943-16B6-4BC7-9307-7CF44409F05E}"/>
+    <hyperlink ref="C120:C123" r:id="rId114" display="https://www.ucb.com.bd/index.php?page=retail-banking/cards/credit-card" xr:uid="{1AA7F841-1B9C-40A5-94E2-BCDAFDEEFD88}"/>
+    <hyperlink ref="C124" r:id="rId115" xr:uid="{22A89FA8-64A5-42AA-B309-541D981624AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId116"/>
 </worksheet>
 </file>